--- a/pdigy/PDigyMap.xlsx
+++ b/pdigy/PDigyMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osahin/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osahin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CED7B4-4030-5A4F-BD72-BF5F1BED2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92E156-6B7F-7043-BAAB-902A5E3FE21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{66416868-3D12-A547-BAF1-AFD683643788}"/>
+    <workbookView xWindow="-51200" yWindow="-20240" windowWidth="51200" windowHeight="28300" xr2:uid="{66416868-3D12-A547-BAF1-AFD683643788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +181,15 @@
   </si>
   <si>
     <t>"012"*36</t>
+  </si>
+  <si>
+    <t>"015"</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Code(in Hex)</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD997CC-1478-8242-9FBD-FF04F973818F}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,27 +572,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -594,10 +600,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -605,10 +611,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -616,38 +622,38 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -655,10 +661,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -666,10 +672,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -677,10 +683,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>128</v>
@@ -688,10 +694,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -699,10 +705,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>128</v>
@@ -710,10 +716,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -721,24 +727,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>128</v>
@@ -746,10 +752,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>128</v>
@@ -757,10 +763,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -768,24 +774,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -793,24 +799,24 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -818,18 +824,29 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
